--- a/WorkBot/main/backend/pricing/Old FIles/ProducePricing.xlsx
+++ b/WorkBot/main/backend/pricing/Old FIles/ProducePricing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -736,10 +736,10 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B3:B75"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1142,11 +1142,11 @@
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>0.65 per LB</t>
+          <t>0.64 per LB</t>
         </is>
       </c>
       <c r="E7" s="81" t="n">
-        <v>26.19</v>
+        <v>25.65</v>
       </c>
       <c r="F7" s="25" t="inlineStr">
         <is>
@@ -1226,11 +1226,11 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>12.23 per LB</t>
+          <t>14.18 per LB</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.23</v>
+        <v>14.18</v>
       </c>
       <c r="F8" s="80" t="inlineStr">
         <is>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="H8" s="54" t="inlineStr">
         <is>
-          <t>11.93 per LB</t>
+          <t>13.49 per LB</t>
         </is>
       </c>
       <c r="I8" s="82" t="n">
-        <v>11.93</v>
+        <v>13.49</v>
       </c>
       <c r="J8" s="46" t="inlineStr">
         <is>
@@ -1326,11 +1326,11 @@
       </c>
       <c r="H9" s="54" t="inlineStr">
         <is>
-          <t>1.89 per LB</t>
+          <t>2.38 per LB</t>
         </is>
       </c>
       <c r="I9" s="82" t="n">
-        <v>37.78</v>
+        <v>47.69</v>
       </c>
       <c r="J9" s="46" t="inlineStr">
         <is>
@@ -1360,11 +1360,11 @@
       </c>
       <c r="T9" s="42" t="inlineStr">
         <is>
-          <t>0.91 per LB</t>
+          <t>1.03 per LB</t>
         </is>
       </c>
       <c r="U9" s="77" t="n">
-        <v>27.45</v>
+        <v>31.03</v>
       </c>
       <c r="V9" s="78" t="n"/>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renzi </t>
+          <t xml:space="preserve">Sysco </t>
         </is>
       </c>
       <c r="C10" s="51" t="inlineStr">
@@ -1386,11 +1386,11 @@
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>2.89 per LB</t>
+          <t>3.08 per LB</t>
         </is>
       </c>
       <c r="E10" s="81" t="n">
-        <v>34.71</v>
+        <v>36.98</v>
       </c>
       <c r="F10" s="25" t="inlineStr">
         <is>
@@ -1418,11 +1418,11 @@
       </c>
       <c r="L10" s="16" t="inlineStr">
         <is>
-          <t>2.18 per LB</t>
+          <t>2.66 per LB</t>
         </is>
       </c>
       <c r="M10" s="79" t="n">
-        <v>39.29</v>
+        <v>47.92</v>
       </c>
       <c r="N10" s="36" t="inlineStr">
         <is>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="T10" s="42" t="inlineStr">
         <is>
-          <t>2.98 per LB</t>
+          <t>3.09 per LB</t>
         </is>
       </c>
       <c r="U10" s="77" t="n">
-        <v>35.7</v>
+        <v>37.05</v>
       </c>
       <c r="V10" s="78" t="inlineStr">
         <is>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>1.64 per LB</t>
+          <t>1.69 per LB</t>
         </is>
       </c>
       <c r="E11" s="81" t="n">
-        <v>41.03</v>
+        <v>42.21</v>
       </c>
       <c r="F11" s="25" t="inlineStr">
         <is>
@@ -1534,11 +1534,11 @@
       </c>
       <c r="T11" s="42" t="inlineStr">
         <is>
-          <t>1.19 per LB</t>
+          <t>1.34 per LB</t>
         </is>
       </c>
       <c r="U11" s="77" t="n">
-        <v>29.84</v>
+        <v>33.42</v>
       </c>
       <c r="V11" s="78" t="inlineStr">
         <is>
@@ -1690,11 +1690,11 @@
       </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
-          <t>2.27 per EA</t>
+          <t>2.22 per EA</t>
         </is>
       </c>
       <c r="E14" s="81" t="n">
-        <v>30.7</v>
+        <v>29.96</v>
       </c>
       <c r="F14" s="25" t="inlineStr">
         <is>
@@ -1908,11 +1908,11 @@
       </c>
       <c r="D17" s="11" t="inlineStr">
         <is>
-          <t>2.99 per EA</t>
+          <t>2.89 per EA</t>
         </is>
       </c>
       <c r="E17" s="81" t="n">
-        <v>35.85</v>
+        <v>34.68</v>
       </c>
       <c r="F17" s="25" t="inlineStr">
         <is>
@@ -1924,11 +1924,11 @@
       </c>
       <c r="H17" s="54" t="inlineStr">
         <is>
-          <t>2.74 per EA</t>
+          <t>3.05 per EA</t>
         </is>
       </c>
       <c r="I17" s="82" t="n">
-        <v>32.9</v>
+        <v>36.63</v>
       </c>
       <c r="J17" s="46" t="inlineStr">
         <is>
@@ -1962,11 +1962,11 @@
       </c>
       <c r="T17" s="42" t="inlineStr">
         <is>
-          <t>2.39 per EA</t>
+          <t>2.79 per EA</t>
         </is>
       </c>
       <c r="U17" s="77" t="n">
-        <v>28.64</v>
+        <v>33.42</v>
       </c>
       <c r="V17" s="78" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance </t>
+          <t xml:space="preserve">Cortland Produce </t>
         </is>
       </c>
       <c r="C18" s="51" t="n">
@@ -1990,11 +1990,11 @@
       </c>
       <c r="D18" s="11" t="inlineStr">
         <is>
-          <t>1.19 per EA</t>
+          <t>1.27 per EA</t>
         </is>
       </c>
       <c r="E18" s="81" t="n">
-        <v>35.61</v>
+        <v>38.18</v>
       </c>
       <c r="F18" s="25" t="inlineStr">
         <is>
@@ -2028,11 +2028,11 @@
       </c>
       <c r="T18" s="42" t="inlineStr">
         <is>
-          <t>1.22 per EA</t>
+          <t>1.24 per EA</t>
         </is>
       </c>
       <c r="U18" s="77" t="n">
-        <v>32.82</v>
+        <v>33.42</v>
       </c>
       <c r="V18" s="78" t="inlineStr">
         <is>
@@ -2152,11 +2152,11 @@
       </c>
       <c r="H20" s="54" t="inlineStr">
         <is>
-          <t>2.08 per EA</t>
+          <t>2.16 per EA</t>
         </is>
       </c>
       <c r="I20" s="82" t="n">
-        <v>24.97</v>
+        <v>25.92</v>
       </c>
       <c r="J20" s="46" t="inlineStr">
         <is>
@@ -2216,11 +2216,11 @@
       </c>
       <c r="D21" s="11" t="inlineStr">
         <is>
-          <t>1.41 per EA</t>
+          <t>1.3 per EA</t>
         </is>
       </c>
       <c r="E21" s="81" t="n">
-        <v>16.95</v>
+        <v>15.64</v>
       </c>
       <c r="F21" s="25" t="inlineStr">
         <is>
@@ -2248,11 +2248,11 @@
       </c>
       <c r="L21" s="16" t="inlineStr">
         <is>
-          <t>1.36 per EA</t>
+          <t>1.14 per EA</t>
         </is>
       </c>
       <c r="M21" s="79" t="n">
-        <v>16.37</v>
+        <v>13.69</v>
       </c>
       <c r="N21" s="36" t="inlineStr">
         <is>
@@ -2282,11 +2282,11 @@
       </c>
       <c r="T21" s="42" t="inlineStr">
         <is>
-          <t>1.34 per EA</t>
+          <t>1.39 per EA</t>
         </is>
       </c>
       <c r="U21" s="77" t="n">
-        <v>16.11</v>
+        <v>16.71</v>
       </c>
       <c r="V21" s="78" t="inlineStr">
         <is>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="D22" s="11" t="inlineStr">
         <is>
-          <t>2.72 per DZ</t>
+          <t>2.74 per DZ</t>
         </is>
       </c>
       <c r="E22" s="81" t="n">
-        <v>81.55</v>
+        <v>82.2</v>
       </c>
       <c r="F22" s="25" t="inlineStr">
         <is>
@@ -2328,11 +2328,11 @@
       </c>
       <c r="H22" s="54" t="inlineStr">
         <is>
-          <t>2.53 per DZ</t>
+          <t>2.56 per DZ</t>
         </is>
       </c>
       <c r="I22" s="82" t="n">
-        <v>75.91</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="J22" s="46" t="inlineStr">
         <is>
@@ -2352,11 +2352,11 @@
       </c>
       <c r="T22" s="42" t="inlineStr">
         <is>
-          <t>2.57 per DZ</t>
+          <t>2.73 per DZ</t>
         </is>
       </c>
       <c r="U22" s="77" t="n">
-        <v>77.2</v>
+        <v>81.8</v>
       </c>
       <c r="V22" s="78" t="inlineStr">
         <is>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="T23" s="42" t="inlineStr">
         <is>
-          <t>3.79 per LB</t>
+          <t>4.06 per LB</t>
         </is>
       </c>
       <c r="U23" s="77" t="n">
-        <v>75.78</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="V23" s="78" t="inlineStr">
         <is>
@@ -2460,11 +2460,11 @@
       </c>
       <c r="D24" s="11" t="inlineStr">
         <is>
-          <t>7.95 per LB</t>
+          <t>7.65 per LB</t>
         </is>
       </c>
       <c r="E24" s="81" t="n">
-        <v>7.95</v>
+        <v>7.65</v>
       </c>
       <c r="F24" s="25" t="inlineStr">
         <is>
@@ -2494,11 +2494,11 @@
       </c>
       <c r="T24" s="42" t="inlineStr">
         <is>
-          <t>1.23 per LB</t>
+          <t>1.46 per LB</t>
         </is>
       </c>
       <c r="U24" s="77" t="n">
-        <v>36.82</v>
+        <v>43.73</v>
       </c>
       <c r="V24" s="78" t="inlineStr">
         <is>
@@ -2522,11 +2522,11 @@
       </c>
       <c r="D25" s="11" t="inlineStr">
         <is>
-          <t>3.76 per LB</t>
+          <t>3.74 per LB</t>
         </is>
       </c>
       <c r="E25" s="81" t="n">
-        <v>67.59</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="F25" s="25" t="inlineStr">
         <is>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="L25" s="16" t="inlineStr">
         <is>
-          <t>3.37 per LB</t>
+          <t>3.31 per LB</t>
         </is>
       </c>
       <c r="M25" s="79" t="n">
-        <v>60.71</v>
+        <v>59.52</v>
       </c>
       <c r="N25" s="36" t="inlineStr">
         <is>
@@ -2575,11 +2575,11 @@
       </c>
       <c r="T25" s="42" t="inlineStr">
         <is>
-          <t>2.82 per LB</t>
+          <t>2.95 per LB</t>
         </is>
       </c>
       <c r="U25" s="77" t="n">
-        <v>50.72</v>
+        <v>53.11</v>
       </c>
       <c r="V25" s="78" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="D27" s="11" t="inlineStr">
         <is>
-          <t>3.19 per LB</t>
+          <t>3.13 per LB</t>
         </is>
       </c>
       <c r="E27" s="81" t="n">
-        <v>31.95</v>
+        <v>31.29</v>
       </c>
       <c r="F27" s="25" t="inlineStr">
         <is>
@@ -2814,11 +2814,11 @@
       </c>
       <c r="T29" s="42" t="inlineStr">
         <is>
-          <t>2.34 per EA</t>
+          <t>2.69 per EA</t>
         </is>
       </c>
       <c r="U29" s="77" t="n">
-        <v>28.04</v>
+        <v>32.22</v>
       </c>
       <c r="V29" s="78" t="inlineStr">
         <is>
@@ -2860,11 +2860,11 @@
       </c>
       <c r="L30" s="16" t="inlineStr">
         <is>
-          <t>2.84 per LB</t>
+          <t>2.91 per LB</t>
         </is>
       </c>
       <c r="M30" s="79" t="n">
-        <v>28.43</v>
+        <v>29.08</v>
       </c>
       <c r="N30" s="36" t="inlineStr">
         <is>
@@ -2925,11 +2925,11 @@
       </c>
       <c r="H31" s="54" t="inlineStr">
         <is>
-          <t>0.77 per EA</t>
+          <t>0.82 per EA</t>
         </is>
       </c>
       <c r="I31" s="82" t="n">
-        <v>29.9</v>
+        <v>31.99</v>
       </c>
       <c r="J31" s="46" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco </t>
+          <t xml:space="preserve">Sysco  or Cortland Produce </t>
         </is>
       </c>
       <c r="C33" s="51" t="n">
@@ -3085,11 +3085,11 @@
       </c>
       <c r="H33" s="54" t="inlineStr">
         <is>
-          <t>0.3 per EA</t>
+          <t>0.33 per EA</t>
         </is>
       </c>
       <c r="I33" s="82" t="n">
-        <v>42.6</v>
+        <v>46.62</v>
       </c>
       <c r="J33" s="46" t="inlineStr">
         <is>
@@ -3153,11 +3153,11 @@
       </c>
       <c r="D34" s="11" t="inlineStr">
         <is>
-          <t>3.82 per LB</t>
+          <t>3.32 per LB</t>
         </is>
       </c>
       <c r="E34" s="81" t="n">
-        <v>38.19</v>
+        <v>33.23</v>
       </c>
       <c r="F34" s="25" t="inlineStr">
         <is>
@@ -3169,11 +3169,11 @@
       </c>
       <c r="H34" s="54" t="inlineStr">
         <is>
-          <t>3.1 per LB</t>
+          <t>3.05 per LB</t>
         </is>
       </c>
       <c r="I34" s="82" t="n">
-        <v>31.04</v>
+        <v>30.53</v>
       </c>
       <c r="J34" s="46" t="inlineStr">
         <is>
@@ -3185,11 +3185,11 @@
       </c>
       <c r="L34" s="16" t="inlineStr">
         <is>
-          <t>3.57 per LB</t>
+          <t>3.45 per LB</t>
         </is>
       </c>
       <c r="M34" s="79" t="n">
-        <v>35.71</v>
+        <v>34.52</v>
       </c>
       <c r="N34" s="36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco </t>
+          <t xml:space="preserve">Performance </t>
         </is>
       </c>
       <c r="C35" s="51" t="inlineStr">
@@ -3239,11 +3239,11 @@
       </c>
       <c r="D35" s="11" t="inlineStr">
         <is>
-          <t>1.59 per EA</t>
+          <t>1.39 per EA</t>
         </is>
       </c>
       <c r="E35" s="81" t="n">
-        <v>38.14</v>
+        <v>33.47</v>
       </c>
       <c r="F35" s="25" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="H35" s="54" t="inlineStr">
         <is>
-          <t>1.57 per EA</t>
+          <t>1.45 per EA</t>
         </is>
       </c>
       <c r="I35" s="82" t="n">
-        <v>37.75</v>
+        <v>34.79</v>
       </c>
       <c r="J35" s="46" t="inlineStr">
         <is>
@@ -3271,11 +3271,11 @@
       </c>
       <c r="L35" s="16" t="inlineStr">
         <is>
-          <t>1.93 per EA</t>
+          <t>1.91 per EA</t>
         </is>
       </c>
       <c r="M35" s="79" t="n">
-        <v>46.43</v>
+        <v>45.83</v>
       </c>
       <c r="N35" s="36" t="inlineStr">
         <is>
@@ -3304,11 +3304,11 @@
       </c>
       <c r="D36" s="11" t="inlineStr">
         <is>
-          <t>0.79 per EA</t>
+          <t>0.83 per EA</t>
         </is>
       </c>
       <c r="E36" s="81" t="n">
-        <v>33.15</v>
+        <v>34.83</v>
       </c>
       <c r="F36" s="25" t="inlineStr">
         <is>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="H36" s="54" t="inlineStr">
         <is>
-          <t>0.41 per EA</t>
+          <t>0.39 per EA</t>
         </is>
       </c>
       <c r="I36" s="82" t="n">
-        <v>19.55</v>
+        <v>18.59</v>
       </c>
       <c r="J36" s="46" t="inlineStr">
         <is>
@@ -3336,11 +3336,11 @@
       </c>
       <c r="L36" s="16" t="inlineStr">
         <is>
-          <t>0.6 per EA</t>
+          <t>0.58 per EA</t>
         </is>
       </c>
       <c r="M36" s="79" t="n">
-        <v>21.43</v>
+        <v>20.83</v>
       </c>
       <c r="N36" s="36" t="inlineStr">
         <is>
@@ -3372,11 +3372,11 @@
       </c>
       <c r="T36" s="42" t="inlineStr">
         <is>
-          <t>0.42 per EA</t>
+          <t>0.5 per EA</t>
         </is>
       </c>
       <c r="U36" s="77" t="n">
-        <v>63.45</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="V36" s="78" t="inlineStr">
         <is>
@@ -3400,11 +3400,11 @@
       </c>
       <c r="D37" s="11" t="inlineStr">
         <is>
-          <t>8.09 per LB</t>
+          <t>7.92 per LB</t>
         </is>
       </c>
       <c r="E37" s="81" t="n">
-        <v>24.26</v>
+        <v>23.76</v>
       </c>
       <c r="F37" s="25" t="inlineStr">
         <is>
@@ -3482,11 +3482,11 @@
       </c>
       <c r="D38" s="11" t="inlineStr">
         <is>
-          <t>4.53 per LB</t>
+          <t>4.34 per LB</t>
         </is>
       </c>
       <c r="E38" s="81" t="n">
-        <v>22.63</v>
+        <v>21.7</v>
       </c>
       <c r="F38" s="25" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance </t>
+          <t xml:space="preserve">Hoffmire </t>
         </is>
       </c>
       <c r="C41" s="51" t="inlineStr">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="D41" s="11" t="inlineStr">
         <is>
-          <t>1.1 per LB</t>
+          <t>1.2 per LB</t>
         </is>
       </c>
       <c r="E41" s="81" t="n">
-        <v>27.51</v>
+        <v>30.07</v>
       </c>
       <c r="F41" s="25" t="inlineStr">
         <is>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="H41" s="54" t="inlineStr">
         <is>
-          <t>1.32 per LB</t>
+          <t>1.4 per LB</t>
         </is>
       </c>
       <c r="I41" s="82" t="n">
-        <v>32.99</v>
+        <v>34.95</v>
       </c>
       <c r="J41" s="46" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="L41" s="16" t="inlineStr">
         <is>
-          <t>1.24 per LB</t>
+          <t>1.45 per LB</t>
         </is>
       </c>
       <c r="M41" s="79" t="n">
-        <v>30.95</v>
+        <v>36.19</v>
       </c>
       <c r="N41" s="36" t="inlineStr">
         <is>
@@ -3793,11 +3793,11 @@
       </c>
       <c r="T41" s="42" t="inlineStr">
         <is>
-          <t>1.17 per LB</t>
+          <t>1.24 per LB</t>
         </is>
       </c>
       <c r="U41" s="77" t="n">
-        <v>29.16</v>
+        <v>30.98</v>
       </c>
       <c r="V41" s="78" t="inlineStr">
         <is>
@@ -3861,11 +3861,11 @@
       </c>
       <c r="D43" s="11" t="inlineStr">
         <is>
-          <t>0.78 per LB</t>
+          <t>0.83 per LB</t>
         </is>
       </c>
       <c r="E43" s="81" t="n">
-        <v>39.1</v>
+        <v>41.52</v>
       </c>
       <c r="F43" s="25" t="inlineStr">
         <is>
@@ -3917,11 +3917,11 @@
       </c>
       <c r="T43" s="42" t="inlineStr">
         <is>
-          <t>0.79 per LB</t>
+          <t>0.82 per LB</t>
         </is>
       </c>
       <c r="U43" s="77" t="n">
-        <v>39.38</v>
+        <v>41.17</v>
       </c>
       <c r="V43" s="78" t="inlineStr">
         <is>
@@ -4033,11 +4033,11 @@
       </c>
       <c r="L45" s="16" t="inlineStr">
         <is>
-          <t>3.57 per LB</t>
+          <t>5.8 per LB</t>
         </is>
       </c>
       <c r="M45" s="79" t="n">
-        <v>28.57</v>
+        <v>46.43</v>
       </c>
       <c r="N45" s="36" t="inlineStr">
         <is>
@@ -4051,11 +4051,11 @@
       </c>
       <c r="T45" s="42" t="inlineStr">
         <is>
-          <t>0.73 per EA</t>
+          <t>0.68 per EA</t>
         </is>
       </c>
       <c r="U45" s="77" t="n">
-        <v>35.21</v>
+        <v>32.82</v>
       </c>
       <c r="V45" s="78" t="inlineStr">
         <is>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="T47" s="42" t="inlineStr">
         <is>
-          <t>0.65 per EA</t>
+          <t>0.55 per EA</t>
         </is>
       </c>
       <c r="U47" s="77" t="n">
-        <v>38.79</v>
+        <v>32.82</v>
       </c>
       <c r="V47" s="78" t="inlineStr">
         <is>
@@ -4288,11 +4288,11 @@
       </c>
       <c r="D49" s="11" t="inlineStr">
         <is>
-          <t>34.22 per BU</t>
+          <t>33.87 per BU</t>
         </is>
       </c>
       <c r="E49" s="81" t="n">
-        <v>30.8</v>
+        <v>30.48</v>
       </c>
       <c r="F49" s="25" t="inlineStr">
         <is>
@@ -4320,11 +4320,11 @@
       </c>
       <c r="L49" s="16" t="inlineStr">
         <is>
-          <t>1.61 per LB</t>
+          <t>1.43 per LB</t>
         </is>
       </c>
       <c r="M49" s="79" t="n">
-        <v>32.14</v>
+        <v>28.57</v>
       </c>
       <c r="N49" s="36" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="D52" s="11" t="inlineStr">
         <is>
-          <t>5.06 per LB</t>
+          <t>4.41 per LB</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>55.66</v>
+        <v>48.52</v>
       </c>
       <c r="F52" s="80" t="inlineStr">
         <is>
@@ -4511,11 +4511,11 @@
       </c>
       <c r="L52" s="16" t="inlineStr">
         <is>
-          <t>3.68 per LB</t>
+          <t>3.46 per LB</t>
         </is>
       </c>
       <c r="M52" s="79" t="n">
-        <v>40.48</v>
+        <v>38.1</v>
       </c>
       <c r="N52" s="36" t="inlineStr">
         <is>
@@ -4529,11 +4529,11 @@
       </c>
       <c r="T52" s="42" t="inlineStr">
         <is>
-          <t>48.6 per CS</t>
+          <t>44.71 per CS</t>
         </is>
       </c>
       <c r="U52" s="77" t="n">
-        <v>48.6</v>
+        <v>44.71</v>
       </c>
       <c r="V52" s="78" t="inlineStr">
         <is>
@@ -4610,11 +4610,11 @@
       </c>
       <c r="D54" s="11" t="inlineStr">
         <is>
-          <t>1.13 per LB</t>
+          <t>1.21 per LB</t>
         </is>
       </c>
       <c r="E54" s="81" t="n">
-        <v>45.11</v>
+        <v>48.26</v>
       </c>
       <c r="F54" s="25" t="inlineStr">
         <is>
@@ -4642,11 +4642,11 @@
       </c>
       <c r="L54" s="16" t="inlineStr">
         <is>
-          <t>2.08 per LB</t>
+          <t>2.26 per LB</t>
         </is>
       </c>
       <c r="M54" s="79" t="n">
-        <v>20.83</v>
+        <v>22.62</v>
       </c>
       <c r="N54" s="36" t="inlineStr">
         <is>
@@ -4704,11 +4704,11 @@
       </c>
       <c r="D55" s="11" t="inlineStr">
         <is>
-          <t>4.26 per EA</t>
+          <t>4.28 per EA</t>
         </is>
       </c>
       <c r="E55" s="81" t="n">
-        <v>25.57</v>
+        <v>25.7</v>
       </c>
       <c r="F55" s="25" t="inlineStr">
         <is>
@@ -4736,11 +4736,11 @@
       </c>
       <c r="L55" s="16" t="inlineStr">
         <is>
-          <t>3.77 per EA</t>
+          <t>3.92 per EA</t>
         </is>
       </c>
       <c r="M55" s="79" t="n">
-        <v>22.62</v>
+        <v>23.51</v>
       </c>
       <c r="N55" s="36" t="inlineStr">
         <is>
@@ -5042,11 +5042,11 @@
       </c>
       <c r="D60" s="11" t="inlineStr">
         <is>
-          <t>0.47 per LB</t>
+          <t>0.49 per LB</t>
         </is>
       </c>
       <c r="E60" s="81" t="n">
-        <v>23.43</v>
+        <v>24.66</v>
       </c>
       <c r="F60" s="25" t="inlineStr">
         <is>
@@ -5058,11 +5058,11 @@
       </c>
       <c r="H60" s="54" t="inlineStr">
         <is>
-          <t>0.42 per LB</t>
+          <t>0.41 per LB</t>
         </is>
       </c>
       <c r="I60" s="82" t="n">
-        <v>20.99</v>
+        <v>20.75</v>
       </c>
       <c r="J60" s="46" t="inlineStr">
         <is>
@@ -5154,11 +5154,11 @@
       </c>
       <c r="D62" s="11" t="inlineStr">
         <is>
-          <t>1.09 per EA</t>
+          <t>1.3 per EA</t>
         </is>
       </c>
       <c r="E62" s="81" t="n">
-        <v>52.22</v>
+        <v>62.39</v>
       </c>
       <c r="F62" s="25" t="inlineStr">
         <is>
@@ -5170,11 +5170,11 @@
       </c>
       <c r="H62" s="54" t="inlineStr">
         <is>
-          <t>1.06 per EA</t>
+          <t>1.04 per EA</t>
         </is>
       </c>
       <c r="I62" s="82" t="n">
-        <v>50.85</v>
+        <v>49.88</v>
       </c>
       <c r="J62" s="46" t="inlineStr">
         <is>
@@ -5220,11 +5220,11 @@
       </c>
       <c r="T62" s="42" t="inlineStr">
         <is>
-          <t>1.86 per EA</t>
+          <t>1.57 per EA</t>
         </is>
       </c>
       <c r="U62" s="77" t="n">
-        <v>66.83</v>
+        <v>56.69</v>
       </c>
       <c r="V62" s="78" t="inlineStr">
         <is>
@@ -5250,11 +5250,11 @@
       </c>
       <c r="D63" s="11" t="inlineStr">
         <is>
-          <t>4.37 per LB</t>
+          <t>4.26 per LB</t>
         </is>
       </c>
       <c r="E63" s="81" t="n">
-        <v>43.69</v>
+        <v>42.57</v>
       </c>
       <c r="F63" s="25" t="inlineStr">
         <is>
@@ -5480,11 +5480,11 @@
       </c>
       <c r="D67" s="11" t="inlineStr">
         <is>
-          <t>3.02 per LB</t>
+          <t>3.29 per LB</t>
         </is>
       </c>
       <c r="E67" s="81" t="n">
-        <v>24.2</v>
+        <v>26.32</v>
       </c>
       <c r="F67" s="25" t="inlineStr">
         <is>
@@ -5496,11 +5496,11 @@
       </c>
       <c r="H67" s="54" t="inlineStr">
         <is>
-          <t>2.42 per LB</t>
+          <t>2.55 per LB</t>
         </is>
       </c>
       <c r="I67" s="82" t="n">
-        <v>19.39</v>
+        <v>20.39</v>
       </c>
       <c r="J67" s="46" t="inlineStr">
         <is>
@@ -5535,11 +5535,11 @@
       </c>
       <c r="T67" s="42" t="inlineStr">
         <is>
-          <t>0.78 per LB</t>
+          <t>0.97 per LB</t>
         </is>
       </c>
       <c r="U67" s="77" t="n">
-        <v>23.27</v>
+        <v>29.24</v>
       </c>
       <c r="V67" s="78" t="n"/>
     </row>
@@ -5619,11 +5619,11 @@
       </c>
       <c r="D69" s="11" t="inlineStr">
         <is>
-          <t>3.67 per LB</t>
+          <t>3.79 per LB</t>
         </is>
       </c>
       <c r="E69" s="81" t="n">
-        <v>36.72</v>
+        <v>37.88</v>
       </c>
       <c r="F69" s="25" t="inlineStr">
         <is>
@@ -5669,11 +5669,11 @@
       </c>
       <c r="T69" s="42" t="inlineStr">
         <is>
-          <t>3.99 per LB</t>
+          <t>4.37 per LB</t>
         </is>
       </c>
       <c r="U69" s="77" t="n">
-        <v>39.92</v>
+        <v>43.66</v>
       </c>
       <c r="V69" s="78" t="inlineStr">
         <is>
@@ -5699,11 +5699,11 @@
       </c>
       <c r="D70" s="11" t="inlineStr">
         <is>
-          <t>2.94 per EA</t>
+          <t>2.87 per EA</t>
         </is>
       </c>
       <c r="E70" s="81" t="n">
-        <v>35.22</v>
+        <v>34.49</v>
       </c>
       <c r="F70" s="25" t="inlineStr">
         <is>
@@ -5733,23 +5733,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire </t>
-        </is>
-      </c>
-      <c r="C71" s="51" t="n">
-        <v>76800</v>
+          <t xml:space="preserve">Performance </t>
+        </is>
+      </c>
+      <c r="C71" s="51" t="inlineStr">
+        <is>
+          <t>AN780</t>
+        </is>
       </c>
       <c r="D71" s="11" t="inlineStr">
         <is>
-          <t>1.84 per PT</t>
+          <t>1.48 per PT</t>
         </is>
       </c>
       <c r="E71" s="81" t="n">
-        <v>22.09</v>
+        <v>39.36</v>
       </c>
       <c r="F71" s="25" t="inlineStr">
         <is>
-          <t>12/1Pint</t>
+          <t>20/Lb</t>
         </is>
       </c>
       <c r="G71" s="6" t="n">
@@ -5757,11 +5759,11 @@
       </c>
       <c r="H71" s="54" t="inlineStr">
         <is>
-          <t>2.14 per PT</t>
+          <t>2.01 per PT</t>
         </is>
       </c>
       <c r="I71" s="82" t="n">
-        <v>25.65</v>
+        <v>24.1</v>
       </c>
       <c r="J71" s="46" t="inlineStr">
         <is>
@@ -5773,11 +5775,11 @@
       </c>
       <c r="L71" s="16" t="inlineStr">
         <is>
-          <t>2.08 per PT</t>
+          <t>1.98 per PT</t>
         </is>
       </c>
       <c r="M71" s="79" t="n">
-        <v>25</v>
+        <v>23.81</v>
       </c>
       <c r="N71" s="36" t="inlineStr">
         <is>
@@ -5827,7 +5829,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco </t>
+          <t xml:space="preserve">Hoffmire </t>
         </is>
       </c>
       <c r="C72" s="51" t="inlineStr">
@@ -5837,11 +5839,11 @@
       </c>
       <c r="D72" s="11" t="inlineStr">
         <is>
-          <t>1.68 per LB</t>
+          <t>1.72 per LB</t>
         </is>
       </c>
       <c r="E72" s="81" t="n">
-        <v>42.04</v>
+        <v>42.95</v>
       </c>
       <c r="F72" s="25" t="inlineStr">
         <is>
@@ -5853,11 +5855,11 @@
       </c>
       <c r="H72" s="54" t="inlineStr">
         <is>
-          <t>1.21 per LB</t>
+          <t>1.58 per LB</t>
         </is>
       </c>
       <c r="I72" s="82" t="n">
-        <v>30.35</v>
+        <v>39.39</v>
       </c>
       <c r="J72" s="46" t="inlineStr">
         <is>
@@ -5869,11 +5871,11 @@
       </c>
       <c r="L72" s="16" t="inlineStr">
         <is>
-          <t>1.33 per LB</t>
+          <t>1.62 per LB</t>
         </is>
       </c>
       <c r="M72" s="79" t="n">
-        <v>33.33</v>
+        <v>40.48</v>
       </c>
       <c r="N72" s="36" t="inlineStr">
         <is>
@@ -5903,11 +5905,11 @@
       </c>
       <c r="T72" s="42" t="inlineStr">
         <is>
-          <t>1.55 per LB</t>
+          <t>1.6 per LB</t>
         </is>
       </c>
       <c r="U72" s="77" t="n">
-        <v>38.79</v>
+        <v>39.98</v>
       </c>
       <c r="V72" s="78" t="inlineStr">
         <is>
@@ -5923,7 +5925,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce </t>
+          <t xml:space="preserve">Hoffmire </t>
         </is>
       </c>
       <c r="C73" s="51" t="n">
@@ -5931,11 +5933,11 @@
       </c>
       <c r="D73" s="11" t="inlineStr">
         <is>
-          <t>15.24 per EA</t>
+          <t>17.47 per EA</t>
         </is>
       </c>
       <c r="E73" s="81" t="n">
-        <v>15.24</v>
+        <v>17.47</v>
       </c>
       <c r="F73" s="25" t="inlineStr">
         <is>
@@ -5951,11 +5953,11 @@
       </c>
       <c r="L73" s="16" t="inlineStr">
         <is>
-          <t>16.67 per EA</t>
+          <t>19.05 per EA</t>
         </is>
       </c>
       <c r="M73" s="79" t="n">
-        <v>16.67</v>
+        <v>19.05</v>
       </c>
       <c r="N73" s="36" t="inlineStr">
         <is>
@@ -5985,11 +5987,11 @@
       </c>
       <c r="T73" s="42" t="inlineStr">
         <is>
-          <t>12.89 per EA</t>
+          <t>16.29 per EA</t>
         </is>
       </c>
       <c r="U73" s="77" t="n">
-        <v>12.89</v>
+        <v>16.29</v>
       </c>
       <c r="V73" s="78" t="n"/>
     </row>
@@ -6009,11 +6011,11 @@
       </c>
       <c r="D74" s="11" t="inlineStr">
         <is>
-          <t>1.26 per LB</t>
+          <t>1.09 per LB</t>
         </is>
       </c>
       <c r="E74" s="81" t="n">
-        <v>25.29</v>
+        <v>21.77</v>
       </c>
       <c r="F74" s="25" t="inlineStr">
         <is>
@@ -6025,11 +6027,11 @@
       </c>
       <c r="H74" s="54" t="inlineStr">
         <is>
-          <t>1.27 per LB</t>
+          <t>1.23 per LB</t>
         </is>
       </c>
       <c r="I74" s="82" t="n">
-        <v>26.57</v>
+        <v>25.85</v>
       </c>
       <c r="J74" s="46" t="inlineStr">
         <is>
@@ -6041,11 +6043,11 @@
       </c>
       <c r="L74" s="16" t="inlineStr">
         <is>
-          <t>0.54 per LB</t>
+          <t>0.97 per LB</t>
         </is>
       </c>
       <c r="M74" s="79" t="n">
-        <v>10.71</v>
+        <v>19.35</v>
       </c>
       <c r="N74" s="36" t="inlineStr">
         <is>
@@ -6075,11 +6077,11 @@
       </c>
       <c r="T74" s="42" t="inlineStr">
         <is>
-          <t>1.16 per LB</t>
+          <t>1.04 per LB</t>
         </is>
       </c>
       <c r="U74" s="77" t="n">
-        <v>23.27</v>
+        <v>20.88</v>
       </c>
       <c r="V74" s="78" t="inlineStr">
         <is>

--- a/WorkBot/main/backend/pricing/Old FIles/ProducePricing.xlsx
+++ b/WorkBot/main/backend/pricing/Old FIles/ProducePricing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -736,10 +736,10 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3:R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce </t>
         </is>
       </c>
       <c r="C3" s="51" t="n"/>
@@ -930,19 +930,9 @@
           <t>Sprouts - Alfalfa 1lb</t>
         </is>
       </c>
-      <c r="P3" s="14" t="inlineStr">
-        <is>
-          <t>15.0 per lb</t>
-        </is>
-      </c>
-      <c r="Q3" s="75" t="n">
-        <v>15</v>
-      </c>
-      <c r="R3" s="76" t="inlineStr">
-        <is>
-          <t>1lb</t>
-        </is>
-      </c>
+      <c r="P3" s="14" t="n"/>
+      <c r="Q3" s="75" t="n"/>
+      <c r="R3" s="76" t="n"/>
       <c r="T3" s="19" t="n"/>
       <c r="U3" s="77" t="n"/>
       <c r="V3" s="78" t="n"/>
@@ -955,7 +945,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Cortland Produce </t>
         </is>
       </c>
       <c r="C4" s="51" t="n"/>
@@ -966,19 +956,8 @@
           <t>Apple Cider (Gal) 1gal</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>6.0 per gal</t>
-        </is>
-      </c>
-      <c r="Q4" s="75" t="n">
-        <v>36</v>
-      </c>
-      <c r="R4" s="76" t="inlineStr">
-        <is>
-          <t>6 x 1gal</t>
-        </is>
-      </c>
+      <c r="Q4" s="75" t="n"/>
+      <c r="R4" s="76" t="n"/>
       <c r="S4" s="38" t="inlineStr">
         <is>
           <t>027398</t>
@@ -1006,7 +985,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C5" s="51" t="n"/>
@@ -1054,7 +1033,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renzi  or Renzi </t>
+          <t xml:space="preserve">Renzi  or Renzi  or Renzi  or Renzi  or Renzi </t>
         </is>
       </c>
       <c r="C6" s="51" t="inlineStr">
@@ -1134,7 +1113,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Performance  or Cortland Produce </t>
+          <t xml:space="preserve">Hoffmire  or Performance  or Cortland Produce  or Hoffmire  or Performance  or Cortland Produce  or Hoffmire </t>
         </is>
       </c>
       <c r="C7" s="51" t="n">
@@ -1180,11 +1159,11 @@
       </c>
       <c r="P7" s="14" t="inlineStr">
         <is>
-          <t>0.68 per lb</t>
+          <t>0.6 per lb</t>
         </is>
       </c>
       <c r="Q7" s="75" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R7" s="76" t="inlineStr">
         <is>
@@ -1216,7 +1195,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C8" s="51" t="inlineStr">
@@ -1264,11 +1243,11 @@
       </c>
       <c r="P8" s="14" t="inlineStr">
         <is>
-          <t>13.41 per lb</t>
+          <t>14.55 per lb</t>
         </is>
       </c>
       <c r="Q8" s="75" t="n">
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="R8" s="76" t="inlineStr">
         <is>
@@ -1300,7 +1279,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C9" s="51" t="inlineStr">
@@ -1376,7 +1355,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renzi  or Renzi </t>
+          <t xml:space="preserve">Renzi  or Renzi  or Renzi  or Renzi  or Renzi </t>
         </is>
       </c>
       <c r="C10" s="51" t="inlineStr">
@@ -1436,11 +1415,11 @@
       </c>
       <c r="P10" s="14" t="inlineStr">
         <is>
-          <t>9.0 per lb</t>
+          <t>9.67 per lb</t>
         </is>
       </c>
       <c r="Q10" s="75" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R10" s="76" t="inlineStr">
         <is>
@@ -1472,7 +1451,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C11" s="51" t="n">
@@ -1518,11 +1497,11 @@
       </c>
       <c r="P11" s="14" t="inlineStr">
         <is>
-          <t>1.98 per lb</t>
+          <t>1.92 per lb</t>
         </is>
       </c>
       <c r="Q11" s="75" t="n">
-        <v>49.5</v>
+        <v>48</v>
       </c>
       <c r="R11" s="76" t="inlineStr">
         <is>
@@ -1554,7 +1533,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C12" s="51" t="n"/>
@@ -1586,7 +1565,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Renzi  or Renzi  or Hoffmire </t>
         </is>
       </c>
       <c r="C13" s="51" t="inlineStr">
@@ -1682,7 +1661,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C14" s="51" t="n">
@@ -1710,19 +1689,9 @@
           <t>Cantaloupe - Fresh Whole 1ct</t>
         </is>
       </c>
-      <c r="P14" s="14" t="inlineStr">
-        <is>
-          <t>1.67 per ct</t>
-        </is>
-      </c>
-      <c r="Q14" s="75" t="n">
-        <v>20</v>
-      </c>
-      <c r="R14" s="76" t="inlineStr">
-        <is>
-          <t>12 x 1ct</t>
-        </is>
-      </c>
+      <c r="P14" s="14" t="n"/>
+      <c r="Q14" s="75" t="n"/>
+      <c r="R14" s="76" t="n"/>
       <c r="S14" s="38" t="n">
         <v>4176</v>
       </c>
@@ -1748,7 +1717,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Renzi </t>
         </is>
       </c>
       <c r="C15" s="51" t="inlineStr">
@@ -1806,19 +1775,9 @@
           <t>Carrots - Jumbo Fresh 1lb</t>
         </is>
       </c>
-      <c r="P15" s="14" t="inlineStr">
-        <is>
-          <t>0.68 per lb</t>
-        </is>
-      </c>
-      <c r="Q15" s="75" t="n">
-        <v>17</v>
-      </c>
-      <c r="R15" s="76" t="inlineStr">
-        <is>
-          <t>25 x 1lb</t>
-        </is>
-      </c>
+      <c r="P15" s="14" t="n"/>
+      <c r="Q15" s="75" t="n"/>
+      <c r="R15" s="76" t="n"/>
       <c r="S15" s="38" t="n">
         <v>8104</v>
       </c>
@@ -1844,7 +1803,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renzi  or Renzi </t>
+          <t xml:space="preserve">Renzi  or Renzi  or Renzi  or Renzi  or Renzi </t>
         </is>
       </c>
       <c r="C16" s="51" t="inlineStr">
@@ -1900,7 +1859,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C17" s="51" t="n">
@@ -1982,7 +1941,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C18" s="51" t="n">
@@ -2012,11 +1971,11 @@
       </c>
       <c r="P18" s="14" t="inlineStr">
         <is>
-          <t>1.48 per ct</t>
+          <t>1.55 per ct</t>
         </is>
       </c>
       <c r="Q18" s="75" t="n">
-        <v>44.5</v>
+        <v>46.5</v>
       </c>
       <c r="R18" s="76" t="inlineStr">
         <is>
@@ -2048,7 +2007,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Renzi  or Renzi  or Hoffmire </t>
         </is>
       </c>
       <c r="C19" s="51" t="inlineStr">
@@ -2092,7 +2051,7 @@
       </c>
       <c r="P19" s="14" t="inlineStr">
         <is>
-          <t>0.02 per EA</t>
+          <t>0.04 per EA</t>
         </is>
       </c>
       <c r="Q19" s="75" t="n">
@@ -2100,7 +2059,7 @@
       </c>
       <c r="R19" s="76" t="inlineStr">
         <is>
-          <t>40lb</t>
+          <t>18lb</t>
         </is>
       </c>
       <c r="S19" s="38" t="n">
@@ -2128,7 +2087,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C20" s="51" t="n">
@@ -2170,11 +2129,11 @@
       </c>
       <c r="P20" s="14" t="inlineStr">
         <is>
-          <t>1.0 per lb</t>
+          <t>0.96 per lb</t>
         </is>
       </c>
       <c r="Q20" s="75" t="n">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="R20" s="76" t="inlineStr">
         <is>
@@ -2206,7 +2165,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renzi  or Renzi </t>
+          <t xml:space="preserve">Renzi  or Renzi  or Renzi  or Renzi  or Renzi </t>
         </is>
       </c>
       <c r="C21" s="51" t="inlineStr">
@@ -2264,19 +2223,9 @@
           <t>Cucumber 1ct</t>
         </is>
       </c>
-      <c r="P21" s="14" t="inlineStr">
-        <is>
-          <t>1.75 per ct</t>
-        </is>
-      </c>
-      <c r="Q21" s="75" t="n">
-        <v>21</v>
-      </c>
-      <c r="R21" s="76" t="inlineStr">
-        <is>
-          <t>12 x 1ct</t>
-        </is>
-      </c>
+      <c r="P21" s="14" t="n"/>
+      <c r="Q21" s="75" t="n"/>
+      <c r="R21" s="76" t="n"/>
       <c r="S21" s="38" t="n">
         <v>8448</v>
       </c>
@@ -2302,7 +2251,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C22" s="51" t="inlineStr">
@@ -2372,7 +2321,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renzi  or Renzi </t>
+          <t xml:space="preserve">Renzi  or Renzi  or Renzi  or Renzi  or Renzi </t>
         </is>
       </c>
       <c r="C23" s="51" t="inlineStr">
@@ -2452,7 +2401,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C24" s="51" t="n">
@@ -2476,19 +2425,9 @@
           <t>Ginger Root - Fresh 1lb</t>
         </is>
       </c>
-      <c r="P24" s="14" t="inlineStr">
-        <is>
-          <t>3.0 per lb</t>
-        </is>
-      </c>
-      <c r="Q24" s="75" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" s="76" t="inlineStr">
-        <is>
-          <t>1lb</t>
-        </is>
-      </c>
+      <c r="P24" s="14" t="n"/>
+      <c r="Q24" s="75" t="n"/>
+      <c r="R24" s="76" t="n"/>
       <c r="S24" s="38" t="n">
         <v>8153</v>
       </c>
@@ -2514,7 +2453,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C25" s="51" t="n">
@@ -2559,11 +2498,11 @@
       </c>
       <c r="P25" s="14" t="inlineStr">
         <is>
-          <t>3.14 per lb</t>
+          <t>3.03 per lb</t>
         </is>
       </c>
       <c r="Q25" s="75" t="n">
-        <v>56.5</v>
+        <v>54.5</v>
       </c>
       <c r="R25" s="76" t="inlineStr">
         <is>
@@ -2595,7 +2534,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce </t>
+          <t xml:space="preserve">Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce </t>
         </is>
       </c>
       <c r="C26" s="51" t="n"/>
@@ -2614,7 +2553,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Sysco  or Sysco  or Hoffmire </t>
         </is>
       </c>
       <c r="C27" s="51" t="n">
@@ -2656,15 +2595,15 @@
       </c>
       <c r="P27" s="14" t="inlineStr">
         <is>
-          <t>0.99 per lb</t>
+          <t>2.2 per lb</t>
         </is>
       </c>
       <c r="Q27" s="75" t="n">
-        <v>39.5</v>
+        <v>2.2</v>
       </c>
       <c r="R27" s="76" t="inlineStr">
         <is>
-          <t>40 x 1lb</t>
+          <t>1lb</t>
         </is>
       </c>
       <c r="S27" s="38" t="n">
@@ -2692,7 +2631,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C28" s="51" t="n">
@@ -2748,19 +2687,9 @@
           <t>Honeydew - Fresh (Whole) 1ct</t>
         </is>
       </c>
-      <c r="P28" s="14" t="inlineStr">
-        <is>
-          <t>4.08 per ct</t>
-        </is>
-      </c>
-      <c r="Q28" s="75" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="R28" s="76" t="inlineStr">
-        <is>
-          <t>6 x 1ct</t>
-        </is>
-      </c>
+      <c r="P28" s="14" t="n"/>
+      <c r="Q28" s="75" t="n"/>
+      <c r="R28" s="76" t="n"/>
       <c r="S28" s="38" t="n">
         <v>4184</v>
       </c>
@@ -2786,7 +2715,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C29" s="51" t="n"/>
@@ -2834,7 +2763,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C30" s="51" t="n"/>
@@ -2901,7 +2830,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Cortland Produce </t>
         </is>
       </c>
       <c r="C31" s="51" t="n">
@@ -2943,11 +2872,11 @@
       </c>
       <c r="P31" s="14" t="inlineStr">
         <is>
-          <t>0.35 per EA</t>
+          <t>0.54 per EA</t>
         </is>
       </c>
       <c r="Q31" s="75" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.5375</v>
       </c>
       <c r="R31" s="76" t="inlineStr">
         <is>
@@ -2979,7 +2908,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C32" s="51" t="n">
@@ -3025,11 +2954,11 @@
       </c>
       <c r="P32" s="14" t="inlineStr">
         <is>
-          <t>3.67 per bunch</t>
+          <t>3.83 per bunch</t>
         </is>
       </c>
       <c r="Q32" s="75" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R32" s="76" t="inlineStr">
         <is>
@@ -3061,7 +2990,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C33" s="51" t="n">
@@ -3105,19 +3034,9 @@
           <t>Lemon - Fresh 1ct</t>
         </is>
       </c>
-      <c r="P33" s="14" t="inlineStr">
-        <is>
-          <t>0.34 per ct</t>
-        </is>
-      </c>
-      <c r="Q33" s="75" t="n">
-        <v>47</v>
-      </c>
-      <c r="R33" s="76" t="inlineStr">
-        <is>
-          <t>140 x 1ct</t>
-        </is>
-      </c>
+      <c r="P33" s="14" t="n"/>
+      <c r="Q33" s="75" t="n"/>
+      <c r="R33" s="76" t="n"/>
       <c r="S33" s="38" t="n">
         <v>4186</v>
       </c>
@@ -3143,7 +3062,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C34" s="51" t="inlineStr">
@@ -3203,11 +3122,11 @@
       </c>
       <c r="P34" s="14" t="inlineStr">
         <is>
-          <t>1.54 per ct</t>
+          <t>1.67 per ct</t>
         </is>
       </c>
       <c r="Q34" s="75" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R34" s="76" t="inlineStr">
         <is>
@@ -3229,7 +3148,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C35" s="51" t="inlineStr">
@@ -3296,7 +3215,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C36" s="51" t="n">
@@ -3352,19 +3271,9 @@
           <t>Lime - Fresh 1lb</t>
         </is>
       </c>
-      <c r="P36" s="14" t="inlineStr">
-        <is>
-          <t>1.4 per lb</t>
-        </is>
-      </c>
-      <c r="Q36" s="75" t="n">
-        <v>21</v>
-      </c>
-      <c r="R36" s="76" t="inlineStr">
-        <is>
-          <t>15 x 1lb</t>
-        </is>
-      </c>
+      <c r="P36" s="14" t="n"/>
+      <c r="Q36" s="75" t="n"/>
+      <c r="R36" s="76" t="n"/>
       <c r="S36" s="38" t="inlineStr">
         <is>
           <t>4722</t>
@@ -3392,7 +3301,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C37" s="51" t="n">
@@ -3438,11 +3347,11 @@
       </c>
       <c r="P37" s="14" t="inlineStr">
         <is>
-          <t>9.5 per lb</t>
+          <t>8.83 per lb</t>
         </is>
       </c>
       <c r="Q37" s="75" t="n">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
       <c r="R37" s="76" t="inlineStr">
         <is>
@@ -3474,7 +3383,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C38" s="51" t="n">
@@ -3568,7 +3477,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C39" s="51" t="inlineStr">
@@ -3628,11 +3537,11 @@
       </c>
       <c r="P39" s="14" t="inlineStr">
         <is>
-          <t>2.65 per lb</t>
+          <t>2.6 per lb</t>
         </is>
       </c>
       <c r="Q39" s="75" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="R39" s="76" t="inlineStr">
         <is>
@@ -3664,7 +3573,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C40" s="51" t="n">
@@ -3717,7 +3626,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C41" s="51" t="inlineStr">
@@ -3777,11 +3686,11 @@
       </c>
       <c r="P41" s="14" t="inlineStr">
         <is>
-          <t>1.08 per lb</t>
+          <t>1.44 per lb</t>
         </is>
       </c>
       <c r="Q41" s="75" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R41" s="76" t="inlineStr">
         <is>
@@ -3813,7 +3722,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C42" s="51" t="inlineStr">
@@ -3851,7 +3760,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C43" s="51" t="inlineStr">
@@ -3937,7 +3846,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C44" s="51" t="inlineStr">
@@ -3991,7 +3900,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C45" s="51" t="inlineStr">
@@ -4071,7 +3980,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C46" s="51" t="n">
@@ -4149,7 +4058,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C47" s="51" t="inlineStr">
@@ -4193,7 +4102,7 @@
       </c>
       <c r="P47" s="14" t="inlineStr">
         <is>
-          <t>0.02 per EA</t>
+          <t>0.81 per EA</t>
         </is>
       </c>
       <c r="Q47" s="75" t="n">
@@ -4201,7 +4110,7 @@
       </c>
       <c r="R47" s="76" t="inlineStr">
         <is>
-          <t>40lb</t>
+          <t>1lb</t>
         </is>
       </c>
       <c r="S47" s="38" t="n">
@@ -4229,7 +4138,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C48" s="51" t="inlineStr">
@@ -4280,7 +4189,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C49" s="51" t="n">
@@ -4338,11 +4247,11 @@
       </c>
       <c r="P49" s="14" t="inlineStr">
         <is>
-          <t>1.14 per lb</t>
+          <t>1.12 per lb</t>
         </is>
       </c>
       <c r="Q49" s="75" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="R49" s="76" t="inlineStr">
         <is>
@@ -4364,7 +4273,7 @@
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C50" s="51" t="inlineStr">
@@ -4408,11 +4317,11 @@
       </c>
       <c r="P50" s="14" t="inlineStr">
         <is>
-          <t>1.73 per lb</t>
+          <t>1.43 per lb</t>
         </is>
       </c>
       <c r="Q50" s="75" t="n">
-        <v>34.5</v>
+        <v>28.5</v>
       </c>
       <c r="R50" s="76" t="inlineStr">
         <is>
@@ -4434,7 +4343,7 @@
       </c>
       <c r="B51" s="39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C51" s="51" t="n"/>
@@ -4449,11 +4358,11 @@
       </c>
       <c r="P51" s="14" t="inlineStr">
         <is>
-          <t>8.1 per lb</t>
+          <t>4.0 per lb</t>
         </is>
       </c>
       <c r="Q51" s="75" t="n">
-        <v>40.5</v>
+        <v>20</v>
       </c>
       <c r="R51" s="76" t="inlineStr">
         <is>
@@ -4471,7 +4380,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C52" s="51" t="n">
@@ -4549,7 +4458,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C53" s="51" t="inlineStr">
@@ -4600,7 +4509,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C54" s="51" t="inlineStr">
@@ -4660,11 +4569,11 @@
       </c>
       <c r="P54" s="14" t="inlineStr">
         <is>
-          <t>2.4 per lb</t>
+          <t>2.8 per lb</t>
         </is>
       </c>
       <c r="Q54" s="75" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R54" s="76" t="inlineStr">
         <is>
@@ -4696,7 +4605,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C55" s="51" t="n">
@@ -4754,11 +4663,11 @@
       </c>
       <c r="P55" s="14" t="inlineStr">
         <is>
-          <t>2.86 per ct</t>
+          <t>4.0 per ct</t>
         </is>
       </c>
       <c r="Q55" s="75" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R55" s="76" t="inlineStr">
         <is>
@@ -4777,7 +4686,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C56" s="51" t="inlineStr">
@@ -4812,7 +4721,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C57" s="51" t="n">
@@ -4854,7 +4763,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C58" s="51" t="inlineStr">
@@ -4900,19 +4809,9 @@
           <t>Potato - Chef 50lb</t>
         </is>
       </c>
-      <c r="P58" s="14" t="inlineStr">
-        <is>
-          <t>0.52 per lb</t>
-        </is>
-      </c>
-      <c r="Q58" s="75" t="n">
-        <v>26</v>
-      </c>
-      <c r="R58" s="76" t="inlineStr">
-        <is>
-          <t>50lb</t>
-        </is>
-      </c>
+      <c r="P58" s="14" t="n"/>
+      <c r="Q58" s="75" t="n"/>
+      <c r="R58" s="76" t="n"/>
       <c r="S58" s="38" t="n">
         <v>8484</v>
       </c>
@@ -4938,7 +4837,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C59" s="51" t="n">
@@ -4994,19 +4893,9 @@
           <t>Potato - Red Large (A) 50lb</t>
         </is>
       </c>
-      <c r="P59" s="14" t="inlineStr">
-        <is>
-          <t>0.68 per lb</t>
-        </is>
-      </c>
-      <c r="Q59" s="75" t="n">
-        <v>34</v>
-      </c>
-      <c r="R59" s="76" t="inlineStr">
-        <is>
-          <t>50lb</t>
-        </is>
-      </c>
+      <c r="P59" s="14" t="n"/>
+      <c r="Q59" s="75" t="n"/>
+      <c r="R59" s="76" t="n"/>
       <c r="S59" s="38" t="n">
         <v>8277</v>
       </c>
@@ -5032,7 +4921,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C60" s="51" t="inlineStr">
@@ -5087,7 +4976,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C61" s="51" t="n">
@@ -5118,11 +5007,11 @@
       </c>
       <c r="P61" s="14" t="inlineStr">
         <is>
-          <t>2.04 per lb</t>
+          <t>2.11 per lb</t>
         </is>
       </c>
       <c r="Q61" s="75" t="n">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="R61" s="76" t="inlineStr">
         <is>
@@ -5144,7 +5033,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Hoffmire  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C62" s="51" t="inlineStr">
@@ -5240,7 +5129,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C63" s="51" t="inlineStr">
@@ -5275,7 +5164,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C64" s="51" t="n">
@@ -5308,7 +5197,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C65" s="51" t="inlineStr">
@@ -5404,7 +5293,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C66" s="51" t="inlineStr">
@@ -5472,7 +5361,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cortland Produce  or Cortland Produce </t>
+          <t xml:space="preserve">Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce  or Cortland Produce </t>
         </is>
       </c>
       <c r="C67" s="51" t="n">
@@ -5519,11 +5408,11 @@
       </c>
       <c r="P67" s="14" t="inlineStr">
         <is>
-          <t>3.62 per lb</t>
+          <t>3.0 per lb</t>
         </is>
       </c>
       <c r="Q67" s="75" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R67" s="76" t="inlineStr">
         <is>
@@ -5551,7 +5440,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C68" s="51" t="n">
@@ -5611,7 +5500,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C69" s="51" t="n">
@@ -5653,11 +5542,11 @@
       </c>
       <c r="P69" s="14" t="inlineStr">
         <is>
-          <t>4.0 per lb</t>
+          <t>5.4 per lb</t>
         </is>
       </c>
       <c r="Q69" s="75" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="R69" s="76" t="inlineStr">
         <is>
@@ -5689,7 +5578,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C70" s="51" t="inlineStr">
@@ -5733,7 +5622,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Performance </t>
+          <t xml:space="preserve">Performance  or Performance  or Performance  or Performance  or Performance </t>
         </is>
       </c>
       <c r="C71" s="51" t="inlineStr">
@@ -5793,11 +5682,11 @@
       </c>
       <c r="P71" s="14" t="inlineStr">
         <is>
-          <t>1.75 per pint</t>
+          <t>1.33 per pint</t>
         </is>
       </c>
       <c r="Q71" s="75" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="R71" s="76" t="inlineStr">
         <is>
@@ -5829,7 +5718,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sysco  or Sysco </t>
+          <t xml:space="preserve">Sysco  or Sysco  or Sysco  or Sysco  or Sysco </t>
         </is>
       </c>
       <c r="C72" s="51" t="inlineStr">
@@ -5889,11 +5778,11 @@
       </c>
       <c r="P72" s="14" t="inlineStr">
         <is>
-          <t>1.6 per lb</t>
+          <t>1.68 per lb</t>
         </is>
       </c>
       <c r="Q72" s="75" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R72" s="76" t="inlineStr">
         <is>
@@ -5925,7 +5814,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmire  or Hoffmire </t>
+          <t xml:space="preserve">Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire  or Hoffmire </t>
         </is>
       </c>
       <c r="C73" s="51" t="n">
@@ -5971,11 +5860,11 @@
       </c>
       <c r="P73" s="14" t="inlineStr">
         <is>
-          <t>10.85 per ct</t>
+          <t>14.0 per ct</t>
         </is>
       </c>
       <c r="Q73" s="75" t="n">
-        <v>10.85</v>
+        <v>14</v>
       </c>
       <c r="R73" s="76" t="inlineStr">
         <is>
@@ -6003,7 +5892,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renzi  or Renzi </t>
+          <t xml:space="preserve">Renzi  or Renzi  or Renzi  or Renzi  or Renzi </t>
         </is>
       </c>
       <c r="C74" s="51" t="n">
@@ -6061,11 +5950,11 @@
       </c>
       <c r="P74" s="14" t="inlineStr">
         <is>
-          <t>0.9 per lb</t>
+          <t>1.23 per lb</t>
         </is>
       </c>
       <c r="Q74" s="75" t="n">
-        <v>18</v>
+        <v>24.5</v>
       </c>
       <c r="R74" s="76" t="inlineStr">
         <is>
@@ -6092,7 +5981,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce </t>
+          <t xml:space="preserve">Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce  or Performance  or Sysco  or Renzi  or Hoffmire  or Cortland Produce </t>
         </is>
       </c>
       <c r="F75" s="80" t="n"/>
